--- a/core/common/commonConfig/cGlobal.xlsx
+++ b/core/common/commonConfig/cGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="460" windowWidth="28680" windowHeight="14880"/>
+    <workbookView xWindow="2860" yWindow="460" windowWidth="28680" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="227">
   <si>
     <t>全局配置表</t>
   </si>
@@ -117,12 +117,6 @@
   </si>
   <si>
     <t>每个区服设计注册人数</t>
-  </si>
-  <si>
-    <t>areaMaxRegistNum</t>
-  </si>
-  <si>
-    <t>每个区最大注册人数</t>
   </si>
   <si>
     <t>playerNameLength</t>
@@ -770,7 +764,7 @@
   </si>
   <si>
     <t>questConfigChangeVersion</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>任务配置变更版本号</t>
@@ -789,37 +783,78 @@
     <rPh sb="8" eb="9">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>//摄像机相关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>mapSamplePositionRadius</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>地图SamplePosition半径(米)</t>
     <rPh sb="16" eb="17">
       <t>ban'jing</t>
     </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>gameDesignBearNum</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景AOI灯塔延长尺寸(过渡区为2倍 该值)</t>
+    <rPh sb="7" eb="8">
+      <t>yan'chang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>guo'du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gai</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoiTowerExpandSize</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -925,12 +960,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1238,8 +1274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,7 +1322,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -1336,20 +1372,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1360,30 +1396,30 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1394,13 +1430,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1417,7 +1453,7 @@
         <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,7 +1470,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1451,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="1">
-        <v>10000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,13 +1498,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1479,13 +1515,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1502,7 +1538,7 @@
         <v>33</v>
       </c>
       <c r="E16" s="1">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1519,29 +1555,29 @@
         <v>35</v>
       </c>
       <c r="E17" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1558,46 +1594,46 @@
         <v>40</v>
       </c>
       <c r="E21" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1608,13 +1644,13 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E27" s="1">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1625,13 +1661,13 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,13 +1678,13 @@
         <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E29" s="1">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,13 +1695,13 @@
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1676,13 +1712,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="E31" s="1">
-        <v>0.1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1699,7 +1735,7 @@
         <v>58</v>
       </c>
       <c r="E32" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,7 +1752,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="1">
-        <v>1000</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,7 +1769,7 @@
         <v>62</v>
       </c>
       <c r="E34" s="1">
-        <v>-800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1750,7 +1786,7 @@
         <v>64</v>
       </c>
       <c r="E35" s="1">
-        <v>4000</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1767,7 +1803,7 @@
         <v>66</v>
       </c>
       <c r="E36" s="1">
-        <v>-800</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1778,13 +1814,13 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E37" s="1">
-        <v>4000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1795,13 +1831,13 @@
         <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E38" s="1">
-        <v>0.01</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1812,13 +1848,13 @@
         <v>4</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E39" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1829,13 +1865,13 @@
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1846,13 +1882,13 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E41" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,7 +1905,7 @@
         <v>78</v>
       </c>
       <c r="E42" s="1">
-        <v>10</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1880,13 +1916,13 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E43" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1897,13 +1933,13 @@
         <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>82</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1911,33 +1947,33 @@
         <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E46" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1954,7 +1990,7 @@
         <v>89</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,7 +2007,7 @@
         <v>91</v>
       </c>
       <c r="E48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1982,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E49" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1999,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E50" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2022,7 +2058,7 @@
         <v>97</v>
       </c>
       <c r="E51" s="1">
-        <v>100</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2039,7 +2075,7 @@
         <v>99</v>
       </c>
       <c r="E52" s="1">
-        <v>5000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2056,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="E53" s="1">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2073,7 +2109,7 @@
         <v>103</v>
       </c>
       <c r="E54" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2084,13 +2120,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E55" s="1">
-        <v>2000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2101,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>107</v>
@@ -2111,37 +2147,37 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="E58" s="1">
-        <v>0.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2158,7 +2194,7 @@
         <v>111</v>
       </c>
       <c r="E59" s="1">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,7 +2211,7 @@
         <v>113</v>
       </c>
       <c r="E60" s="1">
-        <v>500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2192,7 +2228,7 @@
         <v>115</v>
       </c>
       <c r="E61" s="1">
-        <v>1500</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,7 +2245,7 @@
         <v>117</v>
       </c>
       <c r="E62" s="1">
-        <v>30000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2220,13 +2256,13 @@
         <v>4</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E63" s="1">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -2237,13 +2273,13 @@
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,13 +2290,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>123</v>
       </c>
       <c r="E65" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -2271,7 +2307,7 @@
         <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>125</v>
@@ -2288,13 +2324,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -2305,13 +2341,13 @@
         <v>4</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E68" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -2322,35 +2358,35 @@
         <v>4</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E69" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="1">
-        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>134</v>
+      </c>
+      <c r="E73" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -2367,7 +2403,7 @@
         <v>136</v>
       </c>
       <c r="E74" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2384,7 +2420,7 @@
         <v>138</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,7 +2437,7 @@
         <v>140</v>
       </c>
       <c r="E76" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,7 +2454,7 @@
         <v>142</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -2428,36 +2464,36 @@
       <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>5</v>
+      <c r="C78" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E78" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>145</v>
+      <c r="A79" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>146</v>
+      <c r="C79" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="E79" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -2466,7 +2502,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -2474,16 +2510,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E81" s="1">
         <v>2</v>
@@ -2491,7 +2527,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>7</v>
@@ -2500,7 +2536,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E82" s="1">
         <v>301</v>
@@ -2508,7 +2544,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
@@ -2517,7 +2553,7 @@
         <v>5</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E83" s="1">
         <v>10</v>
@@ -2525,21 +2561,21 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -2547,16 +2583,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E87" s="1">
         <v>20</v>
@@ -2564,16 +2600,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E88" s="1">
         <v>45</v>
@@ -2581,16 +2617,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E89" s="1">
         <v>-10</v>
@@ -2598,16 +2634,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E90" s="1">
         <v>80</v>
@@ -2615,16 +2651,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E91" s="1">
         <v>0.1</v>
@@ -2632,16 +2668,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
@@ -2649,16 +2685,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E93" s="1">
         <v>5</v>
@@ -2666,16 +2702,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E94" s="1">
         <v>3</v>
@@ -2683,16 +2719,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="1">
         <v>7</v>
@@ -2700,16 +2736,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E96" s="1">
         <v>0.1</v>
@@ -2717,12 +2753,12 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>4</v>
@@ -2731,7 +2767,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E99" s="1">
         <v>60</v>
@@ -2739,12 +2775,12 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
@@ -2753,7 +2789,7 @@
         <v>5</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E104" s="1">
         <v>50</v>
@@ -2761,12 +2797,12 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
@@ -2775,7 +2811,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E107" s="1">
         <v>10</v>
@@ -2783,7 +2819,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
@@ -2792,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E108" s="1">
         <v>500</v>
@@ -2800,7 +2836,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -2809,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E109" s="1">
         <v>90</v>
@@ -2817,7 +2853,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>4</v>
@@ -2826,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E110" s="1">
         <v>2</v>
@@ -2834,12 +2870,12 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
@@ -2848,7 +2884,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E114" s="1">
         <v>10</v>
@@ -2856,7 +2892,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>4</v>
@@ -2865,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E115" s="1">
         <v>0</v>
@@ -2873,21 +2909,21 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -2895,7 +2931,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
@@ -2904,7 +2940,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E119" s="1">
         <v>100</v>
@@ -2912,7 +2948,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>4</v>
@@ -2921,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E120" s="1">
         <v>100</v>
@@ -2929,7 +2965,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>4</v>
@@ -2938,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E121" s="1">
         <v>100</v>
@@ -2946,7 +2982,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>4</v>
@@ -2955,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E122" s="1">
         <v>7</v>
@@ -2963,12 +2999,12 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>4</v>
@@ -2977,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E125" s="1">
         <v>-1</v>
@@ -2985,7 +3021,7 @@
     </row>
     <row r="126" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>4</v>
@@ -2994,7 +3030,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E126" s="1">
         <v>-1</v>
@@ -3002,21 +3038,21 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -3024,26 +3060,26 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
@@ -3051,23 +3087,23 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E137" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
